--- a/biology/Virologie/Albetovirus/Albetovirus.xlsx
+++ b/biology/Virologie/Albetovirus/Albetovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albetovirus est un genre de virus qui infectent les plantes (phytovirus). Ce genre, non-rattaché à une famille, comprend trois espèces acceptées par l'ICTV.
-Les trois espèces de virus incluses dans ce genre représentent des virus-satellites qui dépendent pour leur réplication de virus-assistants des genres Alphanecrovirus ou Betanecrovirus (famille des Tombusviridae)[3],[4].
-Les virus-satellites ont un génome constitué d'ARN monocaténaire linéaire de polarité positive, de taille similaire (1221 à 1245 nucléotides de long), qui présente un seul gène. Ils codent chacun pour une seule protéine[3] qui est la protéine de capside.
-Les virions, non enveloppés, de forme parasphériques à symétrie icosaédrique, ont un diamètre de 17 nm[5].  
+Les trois espèces de virus incluses dans ce genre représentent des virus-satellites qui dépendent pour leur réplication de virus-assistants des genres Alphanecrovirus ou Betanecrovirus (famille des Tombusviridae),.
+Les virus-satellites ont un génome constitué d'ARN monocaténaire linéaire de polarité positive, de taille similaire (1221 à 1245 nucléotides de long), qui présente un seul gène. Ils codent chacun pour une seule protéine qui est la protéine de capside.
+Les virions, non enveloppés, de forme parasphériques à symétrie icosaédrique, ont un diamètre de 17 nm.  
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Albertovirus », est une combinaison de Al, pour Alphanecrovirus, be, pour Betanecrovirus et to pour tobacco[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Albertovirus », est une combinaison de Al, pour Alphanecrovirus, be, pour Betanecrovirus et to pour tobacco.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (15 janvier 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (15 janvier 2021) :
 Tobacco albetovirus 1
 Tobacco albetovirus 2
 Tobacco albetovirus 3</t>
